--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45619DC5-8C9C-4E4F-975A-37237BCA2473}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16EF6E5-4636-4E38-917B-189132A3DB83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7725" yWindow="165" windowWidth="15075" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
+    <sheet name="现在已经有的name属性和id" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,11 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
-  <si>
-    <t>气泡PC英文版文件命名汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="177">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>礼包码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>荣誉排行榜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,14 +201,6 @@
   </si>
   <si>
     <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,6 +286,471 @@
     <t>message
 mes-
 mod-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复我的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复后的消息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_reply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_reply_after.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出框-分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出框-更换头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出框-印象标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pop_share.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pop_avatar.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pop_impression.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_modify.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我玩过的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>played.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_acc_edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号删除弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_pop_del.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方绑定后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_after.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_modify.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改绑定-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改绑定-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_modify_second.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改绑定-完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_modify_complete.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_email.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_got</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_ver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindNewEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_new_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindNewCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_new_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_new_got</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_build</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_modify_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindModifyEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindModifyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_modify_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_modify_got</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_modify_ver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定邮箱-成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定邮箱-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind_email_complete.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号安全设置后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_after.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_set.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码设置-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码设置-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_set_second.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_set_second.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_beans_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_beans_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_beans_got</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_beans_ver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secBeansCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secBeansEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_confirm_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secConfirmPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_build_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_set_complete.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码设置-完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改设置-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_modify.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_cur_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_new_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_again_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec_modify_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secCurPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secNewPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secAgainPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改设置-成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_modify_complete.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号安全-异地登录记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_remote.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号安全-弹框-未绑定邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_pop_email.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号安全-弹框-密码不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_pop_pass.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号安全-弹框-验证码有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_pop_code.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about_us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出框-语言设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_pop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出框-皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin_pop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心
+（31个页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了personal.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时空链接，无内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气泡PC英文版文件命名汇总（embed）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +808,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -412,11 +894,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,20 +936,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,19 +1277,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="6" customWidth="1"/>
-    <col min="6" max="8" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="29.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="10" max="10" width="37.75" customWidth="1"/>
     <col min="11" max="11" width="52" customWidth="1"/>
@@ -759,92 +1300,92 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="C1" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>27</v>
+      <c r="A3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
@@ -852,48 +1393,48 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>29</v>
+      <c r="A5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -901,70 +1442,70 @@
     </row>
     <row r="7" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>38</v>
+      <c r="A8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
@@ -972,19 +1513,19 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
@@ -992,37 +1533,43 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
+      <c r="A11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
@@ -1030,11 +1577,17 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1"/>
@@ -1042,23 +1595,41 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
@@ -1066,11 +1637,17 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
@@ -1078,16 +1655,16 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>40</v>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1096,16 +1673,16 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>43</v>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1114,16 +1691,16 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>46</v>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1132,16 +1709,16 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>49</v>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1150,16 +1727,16 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>53</v>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1168,13 +1745,17 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
@@ -1182,11 +1763,17 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="1">
+        <v>21</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
@@ -1194,23 +1781,37 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="1">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
@@ -1218,11 +1819,17 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="1"/>
@@ -1230,21 +1837,509 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>7</v>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="1">
+        <v>28</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="1">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="1">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="1">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="1">
+        <v>36</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="1">
+        <v>37</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="1">
+        <v>38</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="1">
+        <v>39</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="1">
+        <v>40</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="1">
+        <v>41</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="1">
+        <v>42</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="B14:B44"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A44"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
@@ -1255,4 +2350,312 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B89CCD7-D9EC-4442-A48B-DE29EF1AFB05}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16EF6E5-4636-4E38-917B-189132A3DB83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C037B-98B7-4B8A-BFB4-7D186993FC21}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="165" windowWidth="15075" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,6 +751,14 @@
   </si>
   <si>
     <t>气泡PC英文版文件命名汇总（embed）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息弹出框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_pop.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,6 +968,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1300,16 +1311,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -1342,10 +1353,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -1373,8 +1384,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1393,10 +1404,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -1419,8 +1430,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -1467,10 +1478,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -1493,8 +1504,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -1513,8 +1524,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -1533,10 +1544,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -1559,8 +1570,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -1577,8 +1588,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -1595,58 +1606,56 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>173</v>
+      </c>
       <c r="C15" s="1">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1655,16 +1664,16 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1673,16 +1682,16 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1691,16 +1700,16 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="1">
-        <v>17</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>77</v>
+        <v>16</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1709,16 +1718,16 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1727,16 +1736,16 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1745,16 +1754,16 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1763,16 +1772,16 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="1">
-        <v>21</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>85</v>
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1781,54 +1790,54 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="1">
-        <v>22</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>121</v>
+        <v>21</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1837,54 +1846,54 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1893,16 +1902,16 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="1">
-        <v>28</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>86</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1911,54 +1920,54 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="1">
-        <v>29</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>126</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1967,16 +1976,16 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1985,54 +1994,54 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="1">
-        <v>35</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>157</v>
+        <v>34</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2041,16 +2050,16 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="1">
-        <v>36</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>160</v>
+        <v>35</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2059,16 +2068,16 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2077,16 +2086,16 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2095,16 +2104,16 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="1">
-        <v>39</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>166</v>
+        <v>38</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2113,16 +2122,16 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2131,16 +2140,16 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="1">
-        <v>41</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>170</v>
+        <v>40</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2152,13 +2161,13 @@
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2167,11 +2176,17 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="1">
+        <v>42</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="1"/>
@@ -2179,20 +2194,12 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2200,15 +2207,15 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>175</v>
@@ -2220,15 +2227,15 @@
     </row>
     <row r="48" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>175</v>
@@ -2240,15 +2247,15 @@
     </row>
     <row r="49" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>175</v>
@@ -2259,12 +2266,20 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="G50" s="4"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2286,7 +2301,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -2297,7 +2312,7 @@
     <row r="53" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2309,7 +2324,7 @@
     <row r="54" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="1"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2328,18 +2343,30 @@
       <c r="G55" s="4"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B14:B44"/>
+    <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A44"/>
+    <mergeCell ref="A15:A45"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>

--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C037B-98B7-4B8A-BFB4-7D186993FC21}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5100741-695B-489C-8A62-1052024FEFFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
-    <sheet name="现在已经有的name属性和id" sheetId="2" r:id="rId2"/>
+    <sheet name="气泡已经有的name属性和id" sheetId="2" r:id="rId2"/>
+    <sheet name="游戏平台-web" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="184">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -759,6 +760,40 @@
   </si>
   <si>
     <t>message_pop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气泡已经有的name属性和id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.css
+public.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏平台-web   (game-web)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+header
+h_
+nav
+nav_
+banner
+Slide
+swiper-
+count
+co_
+product
+pro_
+footer
+f_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,41 +1007,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1311,16 +1355,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -1353,10 +1397,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -1384,8 +1428,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1404,10 +1448,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -1430,8 +1474,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -1478,10 +1522,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -1504,7 +1548,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="30"/>
       <c r="C9" s="1">
         <v>7</v>
@@ -1524,8 +1568,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -1544,10 +1588,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -1570,8 +1614,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -1588,8 +1632,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -1622,10 +1666,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -1646,8 +1690,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -1664,8 +1708,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -1682,8 +1726,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -1700,8 +1744,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -1718,8 +1762,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -1736,8 +1780,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -1754,8 +1798,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -1772,8 +1816,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -1790,8 +1834,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -1808,8 +1852,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -1828,8 +1872,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -1846,8 +1890,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -1864,8 +1908,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -1884,8 +1928,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -1902,8 +1946,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -1920,8 +1964,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -1938,8 +1982,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -1958,8 +2002,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -1976,8 +2020,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -1994,8 +2038,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2012,8 +2056,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2032,8 +2076,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2050,8 +2094,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2068,8 +2112,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2086,8 +2130,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2104,8 +2148,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2122,8 +2166,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2140,8 +2184,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2158,8 +2202,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2176,8 +2220,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -2361,17 +2405,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2381,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B89CCD7-D9EC-4442-A48B-DE29EF1AFB05}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2395,246 +2439,245 @@
     <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
@@ -2680,9 +2723,113 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
+    <row r="33" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90BA85-488B-4DD6-97F3-168B38C41DF8}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="21" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5100741-695B-489C-8A62-1052024FEFFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CEFF5-890E-4FC3-9066-AE3A97407DB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
     <sheet name="气泡已经有的name属性和id" sheetId="2" r:id="rId2"/>
     <sheet name="游戏平台-web" sheetId="3" r:id="rId3"/>
+    <sheet name="游戏平台-游戏与图片命名" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="216">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +795,132 @@
 pro_
 footer
 f_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏文件夹名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可汗蒙古帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Awaken: Ancient Clash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神之泪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风战舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画江湖之杯莫停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画江湖之不良人2：黑白无常的羁绊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想英雄2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROK列王之怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫雅典娜Athena Myth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数码暴龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>贪婪洞窟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王的崛起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savage</t>
+  </si>
+  <si>
+    <t>一骑当千2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trojan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年群英传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,6 +1143,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1034,23 +1176,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,16 +1485,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -1397,10 +1527,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -1428,8 +1558,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1448,10 +1578,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -1474,8 +1604,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -1522,10 +1652,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -1548,8 +1678,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -1568,8 +1698,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -1588,10 +1718,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -1614,8 +1744,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -1632,8 +1762,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -1666,10 +1796,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="28" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -1690,8 +1820,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -1708,8 +1838,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -1726,8 +1856,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -1744,8 +1874,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -1762,8 +1892,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -1780,8 +1910,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -1798,8 +1928,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -1816,8 +1946,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -1834,8 +1964,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -1852,8 +1982,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -1872,8 +2002,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -1890,8 +2020,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -1908,8 +2038,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -1928,8 +2058,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -1946,8 +2076,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -1964,8 +2094,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -1982,8 +2112,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2002,8 +2132,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2020,8 +2150,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2038,8 +2168,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2056,8 +2186,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2076,8 +2206,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2094,8 +2224,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2112,8 +2242,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2130,8 +2260,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2148,8 +2278,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2166,8 +2296,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2184,8 +2314,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2202,8 +2332,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2220,8 +2350,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -2405,17 +2535,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2740,7 +2870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90BA85-488B-4DD6-97F3-168B38C41DF8}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2754,16 +2884,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2832,4 +2962,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD37B2A-95FC-4E51-B9B6-16300F51BFA8}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CEFF5-890E-4FC3-9066-AE3A97407DB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED270B7F-D189-4715-A727-9B2D733DFF01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="150" windowWidth="18960" windowHeight="12810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="222">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,11 +769,6 @@
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base.css
-public.css</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -921,6 +916,50 @@
   </si>
   <si>
     <t>少年群英传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.css
+public.css
+home.css
+广告滚动条
+swiper.css
+animate.min.css
+banner.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.css
+public.css
+power.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power
+pow-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">竖版：-ver
+头图：-wide
+宣传图1：-wide-1
+宣传图2：-wide-2
+宣传图3：-wide-3
+宣传图4：-wide-4
+二维码： -code
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1146,41 +1185,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,16 +1530,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -1527,10 +1572,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -1558,8 +1603,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1578,10 +1623,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -1604,8 +1649,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -1652,10 +1697,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -1678,8 +1723,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -1698,8 +1743,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -1718,10 +1763,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -1744,8 +1789,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -1762,8 +1807,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -1796,10 +1841,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -1820,8 +1865,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -1838,8 +1883,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -1856,8 +1901,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -1874,8 +1919,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -1892,8 +1937,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -1910,8 +1955,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -1928,8 +1973,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -1946,8 +1991,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -1964,8 +2009,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -1982,8 +2027,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -2002,8 +2047,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -2020,8 +2065,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -2038,8 +2083,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -2058,8 +2103,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -2076,8 +2121,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -2094,8 +2139,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -2112,8 +2157,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2132,8 +2177,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2150,8 +2195,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2168,8 +2213,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2186,8 +2231,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2206,8 +2251,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2224,8 +2269,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2242,8 +2287,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2260,8 +2305,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2278,8 +2323,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2296,8 +2341,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2314,8 +2359,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2332,8 +2377,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2350,8 +2395,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -2535,17 +2580,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2868,10 +2913,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90BA85-488B-4DD6-97F3-168B38C41DF8}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2884,16 +2929,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="C1" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2942,15 +2987,44 @@
         <v>0</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="21" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2966,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD37B2A-95FC-4E51-B9B6-16300F51BFA8}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2978,135 +3052,192 @@
     <col min="2" max="2" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>197</v>
       </c>
-      <c r="B7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>198</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>200</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>202</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" t="s">
-        <v>214</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:G13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED270B7F-D189-4715-A727-9B2D733DFF01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0DC556-95CE-4376-96E9-D2762436D5EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="150" windowWidth="18960" windowHeight="12810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="90" windowWidth="22020" windowHeight="12810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="223">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,6 +960,10 @@
 宣传图4：-wide-4
 二维码： -code
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutover_template.js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,6 +1189,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1203,29 +1219,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,16 +1534,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -1572,10 +1576,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -1603,8 +1607,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1623,10 +1627,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -1649,8 +1653,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -1697,10 +1701,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -1723,8 +1727,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -1743,8 +1747,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -1763,10 +1767,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -1789,8 +1793,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -1807,8 +1811,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -1841,10 +1845,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="28" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -1865,8 +1869,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -1883,8 +1887,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -1901,8 +1905,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -1919,8 +1923,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -1937,8 +1941,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -1955,8 +1959,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -1973,8 +1977,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -1991,8 +1995,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -2009,8 +2013,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -2027,8 +2031,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -2047,8 +2051,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -2065,8 +2069,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -2083,8 +2087,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -2103,8 +2107,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -2121,8 +2125,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -2139,8 +2143,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -2157,8 +2161,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2177,8 +2181,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2195,8 +2199,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2213,8 +2217,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2231,8 +2235,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2251,8 +2255,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2269,8 +2273,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2287,8 +2291,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2305,8 +2309,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2323,8 +2327,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2341,8 +2345,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2359,8 +2363,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2377,8 +2381,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2395,8 +2399,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -2580,17 +2584,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2915,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90BA85-488B-4DD6-97F3-168B38C41DF8}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2929,16 +2933,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3021,7 +3025,9 @@
       <c r="G4" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
@@ -3059,12 +3065,12 @@
       <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3073,10 +3079,10 @@
       <c r="B2" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3085,10 +3091,10 @@
       <c r="B3" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3097,10 +3103,10 @@
       <c r="B4" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3109,10 +3115,10 @@
       <c r="B5" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3121,10 +3127,10 @@
       <c r="B6" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
@@ -3133,10 +3139,10 @@
       <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3145,10 +3151,10 @@
       <c r="B8" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3157,10 +3163,10 @@
       <c r="B9" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3169,10 +3175,10 @@
       <c r="B10" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3181,10 +3187,10 @@
       <c r="B11" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3193,10 +3199,10 @@
       <c r="B12" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3205,10 +3211,10 @@
       <c r="B13" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">

--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0DC556-95CE-4376-96E9-D2762436D5EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ABBEA2-331D-49BB-BC9E-628F828914A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="90" windowWidth="22020" windowHeight="12810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
     <sheet name="气泡已经有的name属性和id" sheetId="2" r:id="rId2"/>
     <sheet name="游戏平台-web" sheetId="3" r:id="rId3"/>
     <sheet name="游戏平台-游戏与图片命名" sheetId="4" r:id="rId4"/>
+    <sheet name="游戏资料汇总" sheetId="5" r:id="rId5"/>
+    <sheet name="游戏文件所在名称" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="293">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -873,9 +875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>digital</t>
-  </si>
-  <si>
     <t>贪婪洞窟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -886,9 +885,6 @@
   <si>
     <t>王的崛起</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>savage</t>
   </si>
   <si>
     <t>一骑当千2</t>
@@ -934,16 +930,6 @@
 swiper.css
 animate.min.css
 banner.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base.css
-public.css
-power.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -966,12 +952,312 @@
     <t>cutover_template.js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>savage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.css
+public.css
+template.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privacy_agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscriber_agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.css
+public.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreement
+agr-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏资料汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏下载链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.mguwp.net/web/start?page=https%3a%2f%2fh5mg.hzmofeng.com%2fwdjqmg%2ftwh5s1%2fh5.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://store.mguwp.com/download/the-savage-king/the-savage-king.apk </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.mguwp.net/web/start?page=http%3a%2f%2ftldkupdate.vrseastar.com%2fwin10web.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.mguwp.net/web/start?page=http%3a%2f%2ffx.wan855.cn%2fh5j%2fmg%2fg%2fbmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯莫停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Greedy Cave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9PCDB5KGZW38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NQNMRS3JXNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画江湖之杯莫停H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Savage King</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NKGR7ZBJHQZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的专题html文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏图片所在文件夹名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalworldevolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalworldevolution.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少图片7个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonawaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonawaken.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗梦英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fantasyhero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fantasyhero.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">legendofjunior </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legendofjunior.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongolianempire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongolianempire.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omegazodiac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omegazodiac.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rageofkings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rageofkings.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thelegendofgoddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thelegendofgoddess.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warshipempire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warshipempire.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buliangren2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buliangren2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiqidangqian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiqidangqian2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thesavageking.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thegreedycave.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beimoting.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NCN5W2XMRGP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rage of Kings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital World Evolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9P44R51Z21WW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9MVTGVJ6VWWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +1279,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1119,10 +1413,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,6 +1484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,9 +1527,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1534,16 +1849,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -1576,10 +1891,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -1607,8 +1922,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1627,10 +1942,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -1653,8 +1968,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -1701,10 +2016,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -1727,8 +2042,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -1747,8 +2062,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -1767,10 +2082,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -1793,8 +2108,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -1811,8 +2126,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -1845,10 +2160,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -1869,8 +2184,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -1887,8 +2202,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -1905,8 +2220,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -1923,8 +2238,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -1941,8 +2256,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -1959,8 +2274,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -1977,8 +2292,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -1995,8 +2310,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -2013,8 +2328,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -2031,8 +2346,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -2051,8 +2366,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -2069,8 +2384,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -2087,8 +2402,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -2107,8 +2422,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -2125,8 +2440,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -2143,8 +2458,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -2161,8 +2476,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2181,8 +2496,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2199,8 +2514,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2217,8 +2532,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2235,8 +2550,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2255,8 +2570,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2273,8 +2588,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2291,8 +2606,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2309,8 +2624,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2327,8 +2642,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2345,8 +2660,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2363,8 +2678,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2381,8 +2696,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2399,8 +2714,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -2917,15 +3232,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90BA85-488B-4DD6-97F3-168B38C41DF8}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="18.875" customWidth="1"/>
+    <col min="1" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="9" width="18.875" customWidth="1"/>
     <col min="10" max="10" width="20.375" customWidth="1"/>
     <col min="11" max="11" width="18.875" customWidth="1"/>
   </cols>
@@ -2933,16 +3250,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2991,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>182</v>
@@ -3008,25 +3325,25 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="H4" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3034,9 +3351,55 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="C1:J1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3048,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD37B2A-95FC-4E51-B9B6-16300F51BFA8}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3065,60 +3428,60 @@
       <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="D1" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3127,10 +3490,10 @@
       <c r="B6" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
@@ -3139,10 +3502,10 @@
       <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3151,10 +3514,10 @@
       <c r="B8" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3163,81 +3526,81 @@
       <c r="B9" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+        <v>210</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="24" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3248,4 +3611,523 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADBC788-0779-41DF-9892-E53B79E6D89A}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E8:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="24.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19" style="23" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="21">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="21">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="21">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="21">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="21">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="21">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="21">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D27" s="21">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{9618EE91-5595-47FB-B7DB-5F69F74386F6}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{BCA33698-670F-4B96-86CC-348A3EE9485F}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{96263083-4E4C-465C-863D-73FAE39DCE67}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{EF9B64EA-3145-4EEA-889F-566CF72AB9B6}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{FD695183-E66C-440F-9B47-3AF856BE5B9B}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{0EE339DF-6CCC-4362-A0B2-C50F94D3C952}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{F6BA3AAF-C2A3-4EF2-8F29-E58636A2CC38}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{A5AA7C33-845A-408F-8C0A-E97F573580A6}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{3381D54D-96F6-4AF3-A736-73C497F2B6D3}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{EDA510A7-2176-4389-8026-1344E9D0017B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53CB9C5-9D41-4456-8071-224B18C369EC}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ABBEA2-331D-49BB-BC9E-628F828914A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64347F8-6F26-4DF3-B021-4BB143B31142}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="342">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1250,6 +1250,202 @@
   </si>
   <si>
     <t>https://www.microsoft.com/store/apps/9MVTGVJ6VWWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗梦英文</t>
+  </si>
+  <si>
+    <t>fantasyhero.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Legend of Goddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy/ Role-Playing /Massively Multiplayer/ Action /Adventure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9N62S4DK5237</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9PH6FQ3KXTHH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9N6SSZ56JN79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9N68WSZ0PG67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9PDFCVDVX3B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NHGVFSZ352X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NN8MW5FG435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/productId/9N1FWZR6VZMZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend of Junior OL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action /Adventure/ Card/ Puzzle/ Casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action /Adventure/ MOBA/ Role-Playing/ Multiplayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Awaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fantasy Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action/ Adventure/ Role-Playing/ Puzzle/ Casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolian Empire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy /Massively Multiplayer /Real-Time Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omega Zodiac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action/ Adventure/ Strategy /Multiplayer/ Online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warship Empire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action/ Adventure/ Multiplayer /Online /Role-playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画江湖之不良人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action/ Adventure/ Massively Multiplayer/ MOBA/ Role-Playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一骑当千2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy/Massively Multiplayer/ Real-Time Strategy / Role-Playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure / Role-Playing / Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure Massively Multiplayer / MOBA / Role-Playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy /  Massively Multiplayer / Real-Time Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Monster Go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure / Card /  Puzzle / Casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameofglory.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game of Glory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure /  Role-Playing  / Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NBBB03F3DJT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《一骑当千2》是由一骑当千股份出品的差异化策略混合型游戏，独具特色的千人大场面混战古战场，独家融入8套古代阵法- 一字长蛇八门金锁，九宫八卦，超强阵法组合彰显不同战斗结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultimateknight.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9P77G5TGS8NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate Knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure / Role-Playing /  Fight Technology / Multiplayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate Knight: For Honor is a 3D ARPG of magic theme game, simple operation, cool skills, large equipment system, a variety of skills, original real-time team adventure, field rogue PK and other synchronous interactive content, together with stable and smooth cross Service mechanism to create MMO-style combat interactive experience.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omega Zodiac is an exciting ARPG that mixes Greek and Norse mythology. Players will play as the guardian of Goddess Athena, who fight against the evil with the power of 15 Gold Sacred Sets. Players can power up themselves by characteristic systems like Sacred Set, Magic Circle, Goddess, Elf, War Shield and more. They can also interact with others by joining in the abundant PvP events or guilds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Awaken: Evil Hunter is an online 3D MMORPG for browser that features semi-turn multiplayer battles in a fantasy world full of dragons, might and dark creatures. The game has been developed by the same team that created Wartune, one of the most successful online browser games. The game got featured by Facebook after two months of its official launch.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,7 +1486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,6 +1544,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,7 +1631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1485,62 +1699,84 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1849,16 +2085,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -1891,10 +2127,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -1922,8 +2158,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -1942,10 +2178,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -1968,8 +2204,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -2016,10 +2252,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="42" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -2042,8 +2278,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -2062,8 +2298,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -2082,10 +2318,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -2108,8 +2344,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -2126,8 +2362,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -2160,10 +2396,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -2184,8 +2420,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -2202,8 +2438,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -2220,8 +2456,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -2238,8 +2474,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -2256,8 +2492,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -2274,8 +2510,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -2292,8 +2528,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -2310,8 +2546,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -2328,8 +2564,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -2346,8 +2582,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -2366,8 +2602,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -2384,8 +2620,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -2402,8 +2638,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -2422,8 +2658,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -2440,8 +2676,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -2458,8 +2694,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -2476,8 +2712,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2496,8 +2732,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2514,8 +2750,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2532,8 +2768,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2550,8 +2786,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2570,8 +2806,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2588,8 +2824,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2606,8 +2842,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2624,8 +2860,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2642,8 +2878,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2660,8 +2896,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2678,8 +2914,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2696,8 +2932,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2714,8 +2950,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -2899,17 +3135,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3250,16 +3486,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3352,7 +3588,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>223</v>
       </c>
       <c r="C5" s="1">
@@ -3364,18 +3600,18 @@
       <c r="E5" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -3385,11 +3621,11 @@
       <c r="E6" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3412,7 +3648,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3428,12 +3664,12 @@
       <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -3442,10 +3678,10 @@
       <c r="B2" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -3454,10 +3690,10 @@
       <c r="B3" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
@@ -3466,10 +3702,10 @@
       <c r="B4" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
@@ -3478,10 +3714,10 @@
       <c r="B5" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3490,10 +3726,10 @@
       <c r="B6" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
@@ -3502,10 +3738,10 @@
       <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3514,10 +3750,10 @@
       <c r="B8" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3526,10 +3762,10 @@
       <c r="B9" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3538,10 +3774,10 @@
       <c r="B10" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
@@ -3550,10 +3786,10 @@
       <c r="B11" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3562,10 +3798,10 @@
       <c r="B12" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
@@ -3574,10 +3810,10 @@
       <c r="B13" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
@@ -3615,28 +3851,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADBC788-0779-41DF-9892-E53B79E6D89A}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E8:E9"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="23" customWidth="1"/>
-    <col min="6" max="6" width="19" style="23" customWidth="1"/>
-    <col min="7" max="7" width="28.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="18.875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="32" customWidth="1"/>
+    <col min="5" max="6" width="30.125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="19" style="23" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -3645,7 +3884,7 @@
       <c r="C2" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="32" t="s">
         <v>233</v>
       </c>
       <c r="E2" s="23" t="s">
@@ -3660,247 +3899,333 @@
       <c r="H2" s="23" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I2" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="25" t="s">
         <v>237</v>
       </c>
       <c r="G3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+      <c r="H3" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="25" t="s">
         <v>238</v>
       </c>
       <c r="G4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
+      <c r="H4" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="25" t="s">
         <v>239</v>
       </c>
       <c r="G5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="H5" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="33" t="s">
         <v>288</v>
       </c>
       <c r="G6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="H6" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>325</v>
+      </c>
       <c r="B7" s="23" t="s">
         <v>290</v>
       </c>
       <c r="C7" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="33" t="s">
         <v>291</v>
       </c>
       <c r="G7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="H7" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D9" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" t="s">
-        <v>250</v>
+      <c r="H9" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="228" x14ac:dyDescent="0.2">
+      <c r="B10" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" t="s">
+        <v>295</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" t="s">
+        <v>282</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>305</v>
       </c>
       <c r="G17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="21">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>257</v>
-      </c>
-      <c r="F19" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="21">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>260</v>
-      </c>
-      <c r="F20" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F21" t="s">
-        <v>264</v>
-      </c>
-      <c r="G21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="21">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>266</v>
-      </c>
-      <c r="F22" t="s">
-        <v>267</v>
-      </c>
-      <c r="G22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D23" s="21">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F23" t="s">
-        <v>270</v>
-      </c>
-      <c r="G23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="21">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="21">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F25" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="21">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" t="s">
-        <v>281</v>
-      </c>
-      <c r="G26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="21">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" t="s">
-        <v>283</v>
-      </c>
-      <c r="G27" t="s">
         <v>284</v>
       </c>
+      <c r="H17" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="35"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="35"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="35"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="35"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="35"/>
+      <c r="F23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3914,9 +4239,20 @@
     <hyperlink ref="D3" r:id="rId7" xr:uid="{F6BA3AAF-C2A3-4EF2-8F29-E58636A2CC38}"/>
     <hyperlink ref="D6" r:id="rId8" xr:uid="{A5AA7C33-845A-408F-8C0A-E97F573580A6}"/>
     <hyperlink ref="D7" r:id="rId9" xr:uid="{3381D54D-96F6-4AF3-A736-73C497F2B6D3}"/>
-    <hyperlink ref="D8" r:id="rId10" xr:uid="{EDA510A7-2176-4389-8026-1344E9D0017B}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{EDA510A7-2176-4389-8026-1344E9D0017B}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{6E0863E7-6CC2-439B-A427-FFF1487264D5}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{3C5265CF-5552-4A53-A3A2-D500CBEA01C9}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{B02F402B-681E-442B-B4C7-7A4E5C11D0AB}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{AC81E1CF-FE92-45AB-B509-4E24088FEB19}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{6FD2C23F-A6B8-48A5-8DDE-83296AA7FE27}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{7644F213-288A-43A5-AA8F-41D1B2026E23}"/>
+    <hyperlink ref="D16" r:id="rId17" xr:uid="{E4E787A3-5E2A-44E5-95E9-A51EA8F08D50}"/>
+    <hyperlink ref="D17" r:id="rId18" xr:uid="{AF54DDB2-FF3C-4F6C-96D2-DD7FFCA0C3B8}"/>
+    <hyperlink ref="D8" r:id="rId19" xr:uid="{D96750E1-FD59-4798-B6C6-0993C34E2089}"/>
+    <hyperlink ref="D18" r:id="rId20" xr:uid="{C581CD24-665A-4B2B-BAED-0BABC4B8B0B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -3966,7 +4302,7 @@
       <c r="D2" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="54" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3983,7 +4319,7 @@
       <c r="D3" t="s">
         <v>259</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
@@ -3998,7 +4334,7 @@
       <c r="D4" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -4013,7 +4349,7 @@
       <c r="D5" t="s">
         <v>265</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
@@ -4028,7 +4364,7 @@
       <c r="D6" t="s">
         <v>268</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -4043,7 +4379,7 @@
       <c r="D7" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -4058,7 +4394,7 @@
       <c r="D8" t="s">
         <v>274</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -4076,7 +4412,7 @@
       <c r="E9" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
@@ -4091,7 +4427,7 @@
       <c r="D10" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
@@ -4106,7 +4442,7 @@
       <c r="D11" t="s">
         <v>282</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
@@ -4121,7 +4457,7 @@
       <c r="D12" t="s">
         <v>284</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64347F8-6F26-4DF3-B021-4BB143B31142}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237BD573-A0BA-46DB-99B0-F4C2ACC06EB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1724,6 +1724,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1742,23 +1754,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2085,16 +2085,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2127,10 +2127,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -2158,8 +2158,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -2178,10 +2178,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -2204,8 +2204,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -2252,10 +2252,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -2278,8 +2278,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -2318,10 +2318,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -2344,8 +2344,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -2362,8 +2362,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -2396,10 +2396,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="40" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -2420,8 +2420,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -2438,8 +2438,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -2456,8 +2456,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -2474,8 +2474,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -2492,8 +2492,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -2510,8 +2510,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -2528,8 +2528,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -2546,8 +2546,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -2564,8 +2564,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -2582,8 +2582,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -2602,8 +2602,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -2620,8 +2620,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -2638,8 +2638,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -2658,8 +2658,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -2676,8 +2676,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -2694,8 +2694,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -2712,8 +2712,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2732,8 +2732,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2750,8 +2750,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2768,8 +2768,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2786,8 +2786,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2806,8 +2806,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2824,8 +2824,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2842,8 +2842,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2860,8 +2860,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2878,8 +2878,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2896,8 +2896,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2914,8 +2914,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2932,8 +2932,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2950,8 +2950,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -3135,17 +3135,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3486,16 +3486,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3588,7 +3588,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="43" t="s">
         <v>223</v>
       </c>
       <c r="C5" s="1">
@@ -3611,7 +3611,7 @@
       <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -3648,7 +3648,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237BD573-A0BA-46DB-99B0-F4C2ACC06EB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BC56D-D36C-42E8-8A61-EC580A4C0FFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="344">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1446,6 +1446,14 @@
   </si>
   <si>
     <t>Dragon Awaken: Evil Hunter is an online 3D MMORPG for browser that features semi-turn multiplayer battles in a fantasy world full of dragons, might and dark creatures. The game has been developed by the same team that created Wartune, one of the most successful online browser games. The game got featured by Facebook after two months of its official launch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物大战僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhiwu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1724,41 +1732,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2085,16 +2093,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2127,10 +2135,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -2158,8 +2166,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -2178,10 +2186,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -2204,8 +2212,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -2252,10 +2260,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="42" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -2278,8 +2286,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -2298,8 +2306,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -2318,10 +2326,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -2344,8 +2352,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -2362,8 +2370,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -2396,10 +2404,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -2420,8 +2428,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -2438,8 +2446,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -2456,8 +2464,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -2474,8 +2482,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -2492,8 +2500,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -2510,8 +2518,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -2528,8 +2536,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -2546,8 +2554,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -2564,8 +2572,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -2582,8 +2590,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -2602,8 +2610,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -2620,8 +2628,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -2638,8 +2646,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -2658,8 +2666,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -2676,8 +2684,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -2694,8 +2702,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -2712,8 +2720,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2732,8 +2740,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2750,8 +2758,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2768,8 +2776,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2786,8 +2794,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2806,8 +2814,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2824,8 +2832,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2842,8 +2850,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2860,8 +2868,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2878,8 +2886,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2896,8 +2904,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2914,8 +2922,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2932,8 +2940,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2950,8 +2958,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -3135,17 +3143,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3486,16 +3494,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3588,7 +3596,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="39" t="s">
         <v>223</v>
       </c>
       <c r="C5" s="1">
@@ -3611,7 +3619,7 @@
       <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="45"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -3645,7 +3653,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD37B2A-95FC-4E51-B9B6-16300F51BFA8}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -3837,6 +3845,14 @@
       </c>
       <c r="B16" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BC56D-D36C-42E8-8A61-EC580A4C0FFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356B0AC5-A67F-4B4B-AFC4-CA1DCF3D87A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
@@ -1732,6 +1732,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1750,23 +1762,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2093,16 +2093,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2135,10 +2135,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -2166,8 +2166,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -2186,10 +2186,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -2212,8 +2212,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -2260,10 +2260,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -2286,8 +2286,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -2306,8 +2306,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -2326,10 +2326,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -2352,8 +2352,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -2370,8 +2370,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -2404,10 +2404,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="40" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -2428,8 +2428,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -2464,8 +2464,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -2482,8 +2482,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -2500,8 +2500,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -2518,8 +2518,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -2536,8 +2536,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -2554,8 +2554,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -2572,8 +2572,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -2590,8 +2590,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -2610,8 +2610,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -2628,8 +2628,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -2646,8 +2646,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -2666,8 +2666,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -2684,8 +2684,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -2702,8 +2702,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -2720,8 +2720,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2740,8 +2740,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2758,8 +2758,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2776,8 +2776,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2794,8 +2794,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2814,8 +2814,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2832,8 +2832,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2850,8 +2850,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2868,8 +2868,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2886,8 +2886,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2904,8 +2904,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2922,8 +2922,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2940,8 +2940,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2958,8 +2958,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -3143,17 +3143,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3494,16 +3494,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="43" t="s">
         <v>223</v>
       </c>
       <c r="C5" s="1">
@@ -3619,7 +3619,7 @@
       <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -3655,7 +3655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD37B2A-95FC-4E51-B9B6-16300F51BFA8}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3869,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADBC788-0779-41DF-9892-E53B79E6D89A}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L10:L11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356B0AC5-A67F-4B4B-AFC4-CA1DCF3D87A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40AA511-9C7C-4804-AFA4-18F2EC42E380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9015" yWindow="465" windowWidth="13740" windowHeight="12810" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="350">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -938,7 +938,532 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">竖版：-ver
+    <t>cutover_template.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.css
+public.css
+template.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privacy_agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscriber_agreement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.css
+public.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreement
+agr-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏资料汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏下载链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.mguwp.net/web/start?page=https%3a%2f%2fh5mg.hzmofeng.com%2fwdjqmg%2ftwh5s1%2fh5.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://store.mguwp.com/download/the-savage-king/the-savage-king.apk </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.mguwp.net/web/start?page=http%3a%2f%2ftldkupdate.vrseastar.com%2fwin10web.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.mguwp.net/web/start?page=http%3a%2f%2ffx.wan855.cn%2fh5j%2fmg%2fg%2fbmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯莫停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Greedy Cave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9PCDB5KGZW38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NQNMRS3JXNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画江湖之杯莫停H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Savage King</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NKGR7ZBJHQZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的专题html文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏图片所在文件夹名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalworldevolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalworldevolution.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少图片7个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonawaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonawaken.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗梦英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fantasyhero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fantasyhero.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">legendofjunior </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legendofjunior.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongolianempire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongolianempire.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omegazodiac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omegazodiac.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rageofkings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rageofkings.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thelegendofgoddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thelegendofgoddess.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warshipempire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warshipempire.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buliangren2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buliangren2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiqidangqian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiqidangqian2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thesavageking.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thegreedycave.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beimoting.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NCN5W2XMRGP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rage of Kings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital World Evolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9P44R51Z21WW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9MVTGVJ6VWWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗梦英文</t>
+  </si>
+  <si>
+    <t>fantasyhero.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Legend of Goddess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy/ Role-Playing /Massively Multiplayer/ Action /Adventure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9N62S4DK5237</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9PH6FQ3KXTHH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9N6SSZ56JN79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9N68WSZ0PG67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9PDFCVDVX3B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NHGVFSZ352X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NN8MW5FG435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/productId/9N1FWZR6VZMZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend of Junior OL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action /Adventure/ Card/ Puzzle/ Casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action /Adventure/ MOBA/ Role-Playing/ Multiplayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Awaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fantasy Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action/ Adventure/ Role-Playing/ Puzzle/ Casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolian Empire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy /Massively Multiplayer /Real-Time Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omega Zodiac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action/ Adventure/ Strategy /Multiplayer/ Online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warship Empire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action/ Adventure/ Multiplayer /Online /Role-playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画江湖之不良人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action/ Adventure/ Massively Multiplayer/ MOBA/ Role-Playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一骑当千2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy/Massively Multiplayer/ Real-Time Strategy / Role-Playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure / Role-Playing / Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure Massively Multiplayer / MOBA / Role-Playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy /  Massively Multiplayer / Real-Time Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Monster Go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure / Card /  Puzzle / Casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameofglory.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game of Glory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure /  Role-Playing  / Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9NBBB03F3DJT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《一骑当千2》是由一骑当千股份出品的差异化策略混合型游戏，独具特色的千人大场面混战古战场，独家融入8套古代阵法- 一字长蛇八门金锁，九宫八卦，超强阵法组合彰显不同战斗结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultimateknight.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/store/apps/9P77G5TGS8NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate Knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action / Adventure / Role-Playing /  Fight Technology / Multiplayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate Knight: For Honor is a 3D ARPG of magic theme game, simple operation, cool skills, large equipment system, a variety of skills, original real-time team adventure, field rogue PK and other synchronous interactive content, together with stable and smooth cross Service mechanism to create MMO-style combat interactive experience.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omega Zodiac is an exciting ARPG that mixes Greek and Norse mythology. Players will play as the guardian of Goddess Athena, who fight against the evil with the power of 15 Gold Sacred Sets. Players can power up themselves by characteristic systems like Sacred Set, Magic Circle, Goddess, Elf, War Shield and more. They can also interact with others by joining in the abundant PvP events or guilds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Awaken: Evil Hunter is an online 3D MMORPG for browser that features semi-turn multiplayer battles in a fantasy world full of dragons, might and dark creatures. The game has been developed by the same team that created Wartune, one of the most successful online browser games. The game got featured by Facebook after two months of its official launch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物大战僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhiwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星云霸主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starlord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jedi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">图片命名规则：
+竖版：-ver
 头图：-wide
 宣传图1：-wide-1
 宣传图2：-wide-2
@@ -949,511 +1474,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cutover_template.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>savage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>digital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base.css
-public.css
-template.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐私协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务条款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>privacy_agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subscriber_agreement.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base.css
-public.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agreement
-agr-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏资料汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏下载链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h5链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.mguwp.net/web/start?page=https%3a%2f%2fh5mg.hzmofeng.com%2fwdjqmg%2ftwh5s1%2fh5.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://store.mguwp.com/download/the-savage-king/the-savage-king.apk </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.mguwp.net/web/start?page=http%3a%2f%2ftldkupdate.vrseastar.com%2fwin10web.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.mguwp.net/web/start?page=http%3a%2f%2ffx.wan855.cn%2fh5j%2fmg%2fg%2fbmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杯莫停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Greedy Cave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9PCDB5KGZW38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9NQNMRS3JXNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画江湖之杯莫停H5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Savage King</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9NKGR7ZBJHQZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的专题html文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>html名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏图片所在文件夹名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalworldevolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalworldevolution.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至少图片7个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonawaken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonawaken.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗梦英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fantasyhero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fantasyhero.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少年传奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">legendofjunior </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legendofjunior.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可汗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mongolianempire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mongolianempire.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>omegazodiac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>omegazodiac.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rageofkings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rageofkings.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thelegendofgoddess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thelegendofgoddess.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warshipempire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warshipempire.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buliangren2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buliangren2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yiqidangqian2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yiqidangqian2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thesavageking.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thegreedycave.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beimoting.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9NCN5W2XMRGP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rage of Kings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital World Evolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9P44R51Z21WW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9MVTGVJ6VWWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗梦英文</t>
-  </si>
-  <si>
-    <t>fantasyhero.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Legend of Goddess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strategy/ Role-Playing /Massively Multiplayer/ Action /Adventure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9N62S4DK5237</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9PH6FQ3KXTHH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9N6SSZ56JN79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9N68WSZ0PG67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9PDFCVDVX3B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9NHGVFSZ352X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9NN8MW5FG435</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/productId/9N1FWZR6VZMZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legend of Junior OL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action /Adventure/ Card/ Puzzle/ Casual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action /Adventure/ MOBA/ Role-Playing/ Multiplayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragon Awaken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fantasy Hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action/ Adventure/ Role-Playing/ Puzzle/ Casual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mongolian Empire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strategy /Massively Multiplayer /Real-Time Strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omega Zodiac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action/ Adventure/ Strategy /Multiplayer/ Online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warship Empire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action/ Adventure/ Multiplayer /Online /Role-playing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画江湖之不良人2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action/ Adventure/ Massively Multiplayer/ MOBA/ Role-Playing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-一骑当千2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strategy/Massively Multiplayer/ Real-Time Strategy / Role-Playing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action / Adventure / Role-Playing / Strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action / Adventure Massively Multiplayer / MOBA / Role-Playing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strategy /  Massively Multiplayer / Real-Time Strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital Monster Go</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action / Adventure / Card /  Puzzle / Casual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古战争</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameofglory.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game of Glory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action / Adventure /  Role-Playing  / Strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9NBBB03F3DJT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《一骑当千2》是由一骑当千股份出品的差异化策略混合型游戏，独具特色的千人大场面混战古战场，独家融入8套古代阵法- 一字长蛇八门金锁，九宫八卦，超强阵法组合彰显不同战斗结果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultimateknight.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻想英雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/store/apps/9P77G5TGS8NC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ultimate Knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action / Adventure / Role-Playing /  Fight Technology / Multiplayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ultimate Knight: For Honor is a 3D ARPG of magic theme game, simple operation, cool skills, large equipment system, a variety of skills, original real-time team adventure, field rogue PK and other synchronous interactive content, together with stable and smooth cross Service mechanism to create MMO-style combat interactive experience.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Omega Zodiac is an exciting ARPG that mixes Greek and Norse mythology. Players will play as the guardian of Goddess Athena, who fight against the evil with the power of 15 Gold Sacred Sets. Players can power up themselves by characteristic systems like Sacred Set, Magic Circle, Goddess, Elf, War Shield and more. They can also interact with others by joining in the abundant PvP events or guilds.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragon Awaken: Evil Hunter is an online 3D MMORPG for browser that features semi-turn multiplayer battles in a fantasy world full of dragons, might and dark creatures. The game has been developed by the same team that created Wartune, one of the most successful online browser games. The game got featured by Facebook after two months of its official launch.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物大战僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhiwu</t>
+    <t>Candy Shooter Fight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1639,7 +1664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1706,7 +1731,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1732,41 +1756,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2093,16 +2122,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2135,10 +2164,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -2166,8 +2195,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -2186,10 +2215,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -2212,8 +2241,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -2260,10 +2289,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="44" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -2286,8 +2315,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -2306,8 +2335,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -2326,10 +2355,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="1">
@@ -2352,8 +2381,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -2370,8 +2399,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -2407,7 +2436,7 @@
       <c r="A15" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="38" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="1">
@@ -2428,8 +2457,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -2446,8 +2475,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -2464,8 +2493,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -2482,8 +2511,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -2500,8 +2529,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -2518,8 +2547,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -2536,8 +2565,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -2554,8 +2583,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -2572,8 +2601,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -2590,8 +2619,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -2610,8 +2639,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -2628,8 +2657,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -2646,8 +2675,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -2666,8 +2695,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -2684,8 +2713,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -2702,8 +2731,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -2720,8 +2749,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2740,8 +2769,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2758,8 +2787,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2776,8 +2805,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2794,8 +2823,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2814,8 +2843,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2832,8 +2861,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2850,8 +2879,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2868,8 +2897,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2886,8 +2915,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -2904,8 +2933,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -2922,8 +2951,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -2940,8 +2969,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -2958,8 +2987,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -3143,17 +3172,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3494,16 +3523,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3578,16 +3607,16 @@
         <v>214</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>222</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>216</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3596,44 +3625,44 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
-        <v>223</v>
+      <c r="B5" s="41" t="s">
+        <v>222</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="45"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+        <v>226</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3653,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD37B2A-95FC-4E51-B9B6-16300F51BFA8}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3666,194 +3695,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="D1" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="B11" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="B13" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="36" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="36" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="B17" s="24" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>343</v>
       </c>
+      <c r="B18" s="36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3869,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADBC788-0779-41DF-9892-E53B79E6D89A}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3878,7 +3939,7 @@
     <col min="1" max="1" width="9" style="23"/>
     <col min="2" max="2" width="18.875" style="23" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="31" customWidth="1"/>
     <col min="5" max="6" width="30.125" style="23" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="8" max="8" width="19" style="23" customWidth="1"/>
@@ -3887,360 +3948,360 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>183</v>
       </c>
       <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>235</v>
-      </c>
       <c r="G2" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>248</v>
-      </c>
       <c r="I2" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>285</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="33" t="s">
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>289</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>290</v>
       </c>
       <c r="C7" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>291</v>
+      <c r="D7" s="32" t="s">
+        <v>290</v>
       </c>
       <c r="G7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H7" s="23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23" t="s">
+      <c r="D8" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>329</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="G8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>296</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" t="s">
-        <v>276</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="228" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>298</v>
+        <v>308</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" t="s">
+        <v>294</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>310</v>
-      </c>
-      <c r="C11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="G11" t="s">
-        <v>295</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>306</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>312</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="G13" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="C14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>315</v>
-      </c>
       <c r="I14" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="C15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="G15" t="s">
-        <v>279</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>318</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="G16" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="114" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C17" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>305</v>
+      <c r="D17" s="32" t="s">
+        <v>304</v>
       </c>
       <c r="G17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="213.75" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="C18" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>336</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H18" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D19" s="35"/>
+      <c r="D19" s="34"/>
       <c r="E19"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="35"/>
+      <c r="D20" s="34"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="35"/>
+      <c r="D21" s="34"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="35"/>
+      <c r="D22" s="34"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D23" s="35"/>
+      <c r="D23" s="34"/>
       <c r="F23"/>
     </row>
   </sheetData>
@@ -4277,7 +4338,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4287,19 +4348,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
         <v>249</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>251</v>
-      </c>
-      <c r="E1" t="s">
-        <v>252</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4310,16 +4371,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
         <v>253</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>254</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="56" t="s">
         <v>255</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4327,90 +4388,90 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
         <v>257</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>258</v>
       </c>
-      <c r="D3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
         <v>260</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>261</v>
       </c>
-      <c r="D4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
         <v>263</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>264</v>
       </c>
-      <c r="D5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
         <v>266</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>267</v>
       </c>
-      <c r="D6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" t="s">
         <v>269</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>270</v>
       </c>
-      <c r="D7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" t="s">
         <v>272</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>273</v>
       </c>
-      <c r="D8" t="s">
-        <v>274</v>
-      </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -4420,45 +4481,45 @@
         <v>190</v>
       </c>
       <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" t="s">
         <v>275</v>
-      </c>
-      <c r="D9" t="s">
-        <v>276</v>
       </c>
       <c r="E9" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" t="s">
         <v>277</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>278</v>
       </c>
-      <c r="D10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" t="s">
         <v>280</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>281</v>
       </c>
-      <c r="D11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
@@ -4468,12 +4529,12 @@
         <v>206</v>
       </c>
       <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" t="s">
         <v>283</v>
       </c>
-      <c r="D12" t="s">
-        <v>284</v>
-      </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40AA511-9C7C-4804-AFA4-18F2EC42E380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF01D36-46DA-4451-9492-6A406C3F185D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="465" windowWidth="13740" windowHeight="12810" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="embed-pc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="367">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,11 +164,6 @@
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wall
-wa-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1479,6 +1474,84 @@
   </si>
   <si>
     <t>csf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC Gamer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pgamer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀与远征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特种兵大战僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>games</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.css
+public.css
+product.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamest
+g-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall
+wa-
+points
+po-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1664,7 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1761,6 +1834,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1779,23 +1865,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2101,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2122,16 +2196,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="C1" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2164,10 +2238,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -2195,8 +2269,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -2215,10 +2289,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -2241,8 +2315,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -2262,7 +2336,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -2282,52 +2356,52 @@
         <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>366</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>36</v>
+      <c r="A8" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
@@ -2335,19 +2409,19 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1"/>
@@ -2355,42 +2429,42 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>56</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2399,16 +2473,16 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2421,10 +2495,10 @@
       <c r="B14" s="19"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2433,23 +2507,23 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>173</v>
+      <c r="A15" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>172</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
@@ -2457,16 +2531,16 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2475,16 +2549,16 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2493,16 +2567,16 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2511,16 +2585,16 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2529,16 +2603,16 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2547,16 +2621,16 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2565,16 +2639,16 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2583,16 +2657,16 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2601,16 +2675,16 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
       <c r="D24" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2619,19 +2693,19 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="1"/>
@@ -2639,16 +2713,16 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2657,16 +2731,16 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2675,19 +2749,19 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="1"/>
@@ -2695,16 +2769,16 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2713,16 +2787,16 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2731,16 +2805,16 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
       <c r="D31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2749,19 +2823,19 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1"/>
@@ -2769,16 +2843,16 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2787,16 +2861,16 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2805,16 +2879,16 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2823,19 +2897,19 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
@@ -2843,16 +2917,16 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2861,16 +2935,16 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
       <c r="D38" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2879,16 +2953,16 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2897,16 +2971,16 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2915,16 +2989,16 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>164</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2933,16 +3007,16 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
       <c r="D42" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>166</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2951,16 +3025,16 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>168</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2969,16 +3043,16 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2987,16 +3061,16 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -3018,18 +3092,18 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="1"/>
@@ -3038,18 +3112,18 @@
     </row>
     <row r="48" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="1"/>
@@ -3058,18 +3132,18 @@
     </row>
     <row r="49" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="1"/>
@@ -3078,18 +3152,18 @@
     </row>
     <row r="50" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="1"/>
@@ -3172,17 +3246,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B45"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A15:A45"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3208,50 +3282,50 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3259,37 +3333,37 @@
     <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3297,37 +3371,37 @@
     <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -3335,37 +3409,37 @@
     <row r="14" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3373,77 +3447,77 @@
     <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3505,10 +3579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90BA85-488B-4DD6-97F3-168B38C41DF8}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3523,16 +3597,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="C1" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3569,22 +3643,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3598,25 +3672,25 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>221</v>
-      </c>
       <c r="G4" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3625,45 +3699,77 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="41" t="s">
-        <v>222</v>
+      <c r="B5" s="46" t="s">
+        <v>221</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-    </row>
+        <v>225</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:J1"/>
@@ -3682,10 +3788,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD37B2A-95FC-4E51-B9B6-16300F51BFA8}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3696,225 +3802,265 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="D1" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+        <v>193</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+        <v>188</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+        <v>209</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
+        <v>218</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+        <v>217</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>206</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>208</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>341</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>343</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>345</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="12" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3948,338 +4094,338 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>234</v>
-      </c>
       <c r="G2" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>247</v>
-      </c>
       <c r="I2" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>245</v>
-      </c>
       <c r="E3" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>236</v>
-      </c>
       <c r="G3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>241</v>
-      </c>
       <c r="E4" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>324</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="G8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="228" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G11" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>309</v>
-      </c>
-      <c r="C11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>305</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="G12" t="s">
-        <v>264</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G13" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>311</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="G13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="C14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" t="s">
-        <v>270</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>314</v>
-      </c>
       <c r="I14" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>315</v>
-      </c>
-      <c r="C15" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="G15" t="s">
-        <v>278</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>317</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="G16" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="114" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="213.75" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>334</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>335</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H18" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
@@ -4348,19 +4494,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
         <v>248</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>249</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>250</v>
-      </c>
-      <c r="E1" t="s">
-        <v>251</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4371,16 +4517,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
         <v>252</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>253</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="57" t="s">
         <v>254</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4388,153 +4534,153 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
         <v>256</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>257</v>
       </c>
-      <c r="D3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
         <v>259</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>260</v>
       </c>
-      <c r="D4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
         <v>262</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>263</v>
       </c>
-      <c r="D5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" t="s">
         <v>265</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>266</v>
       </c>
-      <c r="D6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
         <v>268</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>269</v>
       </c>
-      <c r="D7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" t="s">
         <v>271</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>272</v>
       </c>
-      <c r="D8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" t="s">
         <v>190</v>
       </c>
-      <c r="C9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" t="s">
         <v>276</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>277</v>
       </c>
-      <c r="D10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
         <v>279</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>280</v>
       </c>
-      <c r="D11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" t="s">
         <v>282</v>
       </c>
-      <c r="D12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/文档/游戏平台-命名规范.xlsx
+++ b/文档/游戏平台-命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF01D36-46DA-4451-9492-6A406C3F185D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE7180C-641B-4E52-89B7-463E94D49292}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="369">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1552,6 +1552,15 @@
 wa-
 points
 po-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃不用的
+游戏平台上线了，本地图片可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现废弃不用，原因是游戏平台是动态数据，保留以备后续使用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1592,7 +1601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1655,24 +1664,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1732,12 +1729,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1804,27 +1819,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1835,6 +1831,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1889,8 +1905,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2175,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2196,16 +2224,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2238,10 +2266,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -2269,8 +2297,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
@@ -2289,10 +2317,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -2315,8 +2343,8 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -2363,10 +2391,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1">
@@ -2389,8 +2417,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
@@ -2409,8 +2437,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
@@ -2429,10 +2457,10 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1">
@@ -2455,8 +2483,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
@@ -2473,8 +2501,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
@@ -2507,10 +2535,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="1">
@@ -2531,8 +2559,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="1">
         <v>13</v>
       </c>
@@ -2549,8 +2577,8 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="1">
         <v>14</v>
       </c>
@@ -2567,8 +2595,8 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="1">
         <v>15</v>
       </c>
@@ -2585,8 +2613,8 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="1">
         <v>16</v>
       </c>
@@ -2603,8 +2631,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="1">
         <v>17</v>
       </c>
@@ -2621,8 +2649,8 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="1">
         <v>18</v>
       </c>
@@ -2639,8 +2667,8 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="1">
         <v>19</v>
       </c>
@@ -2657,8 +2685,8 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="1">
         <v>20</v>
       </c>
@@ -2675,8 +2703,8 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="1">
         <v>21</v>
       </c>
@@ -2693,8 +2721,8 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="1">
         <v>22</v>
       </c>
@@ -2713,8 +2741,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="1">
         <v>23</v>
       </c>
@@ -2731,8 +2759,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="1">
         <v>24</v>
       </c>
@@ -2749,8 +2777,8 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -2769,8 +2797,8 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -2787,8 +2815,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="1">
         <v>27</v>
       </c>
@@ -2805,8 +2833,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="1">
         <v>28</v>
       </c>
@@ -2823,8 +2851,8 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="1">
         <v>29</v>
       </c>
@@ -2843,8 +2871,8 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="1">
         <v>30</v>
       </c>
@@ -2861,8 +2889,8 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="1">
         <v>31</v>
       </c>
@@ -2879,8 +2907,8 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1">
         <v>32</v>
       </c>
@@ -2897,8 +2925,8 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="1">
         <v>33</v>
       </c>
@@ -2917,8 +2945,8 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="1">
         <v>34</v>
       </c>
@@ -2935,8 +2963,8 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="1">
         <v>35</v>
       </c>
@@ -2953,8 +2981,8 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="1">
         <v>36</v>
       </c>
@@ -2971,8 +2999,8 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="1">
         <v>37</v>
       </c>
@@ -2989,8 +3017,8 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="1">
         <v>38</v>
       </c>
@@ -3007,8 +3035,8 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="1">
         <v>39</v>
       </c>
@@ -3025,8 +3053,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="1">
         <v>40</v>
       </c>
@@ -3043,8 +3071,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="1">
         <v>41</v>
       </c>
@@ -3061,8 +3089,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="1">
         <v>42</v>
       </c>
@@ -3266,10 +3294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B89CCD7-D9EC-4442-A48B-DE29EF1AFB05}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3528,48 +3556,6 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3581,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90BA85-488B-4DD6-97F3-168B38C41DF8}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3597,16 +3583,16 @@
     <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3699,7 +3685,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="1">
@@ -3711,18 +3697,18 @@
       <c r="E5" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
@@ -3732,11 +3718,11 @@
       <c r="E6" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -3791,7 +3777,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3801,208 +3787,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="27" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="27" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="27" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="27" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="27" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="27" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4039,10 +4025,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="29" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4055,7 +4041,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="29" t="s">
         <v>359</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -4074,10 +4060,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADBC788-0779-41DF-9892-E53B79E6D89A}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="A13:XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4085,394 +4071,470 @@
     <col min="1" max="1" width="9" style="23"/>
     <col min="2" max="2" width="18.875" style="23" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="24" customWidth="1"/>
     <col min="5" max="6" width="30.125" style="23" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="8" max="8" width="19" style="23" customWidth="1"/>
     <col min="9" max="9" width="21.875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B3" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D3" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E3" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F3" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G3" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H3" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I3" s="32" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D4" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E4" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F4" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H4" s="32" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C5" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D5" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E5" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H5" s="32" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C6" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D6" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E6" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H6" s="32" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H7" s="32" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B8" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D8" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H8" s="32" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="23" t="s">
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C9" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D9" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H9" s="32" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C10" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D10" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H10" s="32" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="228" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" ht="228" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C11" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D11" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H11" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I11" s="32" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D12" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H12" s="32" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C13" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D13" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="G12" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H13" s="32" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C14" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D14" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="G13" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H14" s="32" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D15" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H15" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I15" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
+    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D16" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="G15" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H16" s="32" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C17" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D17" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="G16" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H17" s="32" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="114" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C18" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D18" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H18" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I18" s="32" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="23" t="s">
+    <row r="19" spans="1:9" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C19" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D19" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H19" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I19" s="32" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D19" s="34"/>
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="34"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="25"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="34"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="25"/>
+      <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="34"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="25"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D23" s="34"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="25"/>
       <c r="F23"/>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="25"/>
+      <c r="F24"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{9618EE91-5595-47FB-B7DB-5F69F74386F6}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{BCA33698-670F-4B96-86CC-348A3EE9485F}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{96263083-4E4C-465C-863D-73FAE39DCE67}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{EF9B64EA-3145-4EEA-889F-566CF72AB9B6}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{FD695183-E66C-440F-9B47-3AF856BE5B9B}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{0EE339DF-6CCC-4362-A0B2-C50F94D3C952}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{F6BA3AAF-C2A3-4EF2-8F29-E58636A2CC38}"/>
-    <hyperlink ref="D6" r:id="rId8" xr:uid="{A5AA7C33-845A-408F-8C0A-E97F573580A6}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{3381D54D-96F6-4AF3-A736-73C497F2B6D3}"/>
-    <hyperlink ref="D9" r:id="rId10" xr:uid="{EDA510A7-2176-4389-8026-1344E9D0017B}"/>
-    <hyperlink ref="D10" r:id="rId11" xr:uid="{6E0863E7-6CC2-439B-A427-FFF1487264D5}"/>
-    <hyperlink ref="D11" r:id="rId12" xr:uid="{3C5265CF-5552-4A53-A3A2-D500CBEA01C9}"/>
-    <hyperlink ref="D12" r:id="rId13" xr:uid="{B02F402B-681E-442B-B4C7-7A4E5C11D0AB}"/>
-    <hyperlink ref="D13" r:id="rId14" xr:uid="{AC81E1CF-FE92-45AB-B509-4E24088FEB19}"/>
-    <hyperlink ref="D14" r:id="rId15" xr:uid="{6FD2C23F-A6B8-48A5-8DDE-83296AA7FE27}"/>
-    <hyperlink ref="D15" r:id="rId16" xr:uid="{7644F213-288A-43A5-AA8F-41D1B2026E23}"/>
-    <hyperlink ref="D16" r:id="rId17" xr:uid="{E4E787A3-5E2A-44E5-95E9-A51EA8F08D50}"/>
-    <hyperlink ref="D17" r:id="rId18" xr:uid="{AF54DDB2-FF3C-4F6C-96D2-DD7FFCA0C3B8}"/>
-    <hyperlink ref="D8" r:id="rId19" xr:uid="{D96750E1-FD59-4798-B6C6-0993C34E2089}"/>
-    <hyperlink ref="D18" r:id="rId20" xr:uid="{C581CD24-665A-4B2B-BAED-0BABC4B8B0B0}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{9618EE91-5595-47FB-B7DB-5F69F74386F6}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{BCA33698-670F-4B96-86CC-348A3EE9485F}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{96263083-4E4C-465C-863D-73FAE39DCE67}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{EF9B64EA-3145-4EEA-889F-566CF72AB9B6}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{FD695183-E66C-440F-9B47-3AF856BE5B9B}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{0EE339DF-6CCC-4362-A0B2-C50F94D3C952}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{F6BA3AAF-C2A3-4EF2-8F29-E58636A2CC38}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{A5AA7C33-845A-408F-8C0A-E97F573580A6}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{3381D54D-96F6-4AF3-A736-73C497F2B6D3}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{EDA510A7-2176-4389-8026-1344E9D0017B}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{6E0863E7-6CC2-439B-A427-FFF1487264D5}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{3C5265CF-5552-4A53-A3A2-D500CBEA01C9}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{B02F402B-681E-442B-B4C7-7A4E5C11D0AB}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{AC81E1CF-FE92-45AB-B509-4E24088FEB19}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{6FD2C23F-A6B8-48A5-8DDE-83296AA7FE27}"/>
+    <hyperlink ref="D16" r:id="rId16" xr:uid="{7644F213-288A-43A5-AA8F-41D1B2026E23}"/>
+    <hyperlink ref="D17" r:id="rId17" xr:uid="{E4E787A3-5E2A-44E5-95E9-A51EA8F08D50}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{AF54DDB2-FF3C-4F6C-96D2-DD7FFCA0C3B8}"/>
+    <hyperlink ref="D9" r:id="rId19" xr:uid="{D96750E1-FD59-4798-B6C6-0993C34E2089}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{C581CD24-665A-4B2B-BAED-0BABC4B8B0B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
@@ -4481,210 +4543,250 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53CB9C5-9D41-4456-8071-224B18C369EC}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="20.125" customWidth="1"/>
+    <col min="1" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="G2" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="57" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="57"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="E4" s="31"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="E5" s="31"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="57"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="E6" s="31"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="F6" s="57"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="E7" s="31"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="F7" s="57"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="E8" s="31"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="E9" s="31"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="57"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="F10" s="57"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="F10" s="57"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="E11" s="31"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="59"/>
+    </row>
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="57"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="E12" s="31"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="F12" s="57"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:F12"/>
+  <mergeCells count="3">
+    <mergeCell ref="F3:F13"/>
+    <mergeCell ref="G2:G13"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
